--- a/URS/DbLayouts/L2-業務作業/ClFac.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ClFac.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>擔保品代號1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>擔保品代號2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -207,10 +203,6 @@
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>擔保品與額度關聯檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -415,10 +407,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>設定金額</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>擔保品與額度綁定時當下的設定金額
 (擔保品最新的設定金額應到各類擔保品檔查詢)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -432,19 +420,33 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ClCode1 ASC,ClCode2 ASC,ClNo ASC,FacShareFlag ASC,ApproveNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款餘額的佔用金額
+    <t>設定金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品與額度關聯檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品代號1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClCode1 ASC,ClCode2 ASC,ClNo ASC,ApproveNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClCode1 ASC,ClCode2 ASC,ClNo ASC,ApproveNo ASC</t>
+  </si>
+  <si>
+    <t>放款餘額的佔用金額，運算用不更新
 1.先占用單獨擔保品
 2.再占用共同擔保品
 3.其他額度優先占用其他擔保品</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0:非共用
-1:共用擔保品</t>
+    <t>運算用不更新</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1000,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1021,10 +1023,10 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1034,7 +1036,7 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>20</v>
@@ -1049,10 +1051,10 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1064,10 +1066,10 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1075,14 +1077,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1094,7 +1096,7 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1107,7 +1109,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1120,7 +1122,7 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="14"/>
@@ -1129,11 +1131,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="14"/>
@@ -1142,11 +1144,11 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
@@ -1181,20 +1183,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="18">
         <v>1</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1202,20 +1204,20 @@
         <v>2</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="18">
         <v>2</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1223,13 +1225,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="18">
         <v>7</v>
@@ -1242,20 +1244,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="18">
         <v>7</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1263,13 +1265,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="E16" s="18">
         <v>7</v>
@@ -1282,13 +1284,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="18">
         <v>3</v>
@@ -1301,41 +1303,41 @@
         <v>7</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="E18" s="18">
         <v>1</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>8</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="20">
         <v>1</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1343,13 +1345,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="18">
         <v>16</v>
@@ -1358,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1366,13 +1368,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="20">
         <v>16</v>
@@ -1381,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1425,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>16</v>
@@ -1902,9 +1904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1928,10 +1930,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>93</v>
@@ -1939,10 +1941,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>93</v>
@@ -1950,101 +1952,101 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
